--- a/output.xlsx
+++ b/output.xlsx
@@ -177,12 +177,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'Sheet1'!$B$2:$B$6</f>
+              <f>'Sheet1'!$B$2:$B$57</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'Sheet1'!$D$2:$D$6</f>
+              <f>'Sheet1'!$D$2:$D$57</f>
             </numRef>
           </yVal>
         </ser>
@@ -567,7 +567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,1179 @@
         <v>1380</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-10-26 22:59:42</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>件の表示
+28
+1,389
+1,827
+185
+28件の返信</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-10-26 23:27:33</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>件の表示
+28
+1,389
+1,831
+185
+28件の返信</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-10-26 23:40:26</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>件の表示
+28
+1,392
+1,831
+185
+28件の返信</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-10-26 23:55:02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>件の表示
+29
+1,394
+1,832
+185
+29件の返信</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-10-27 00:01:47</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>件の表示
+29
+1,396
+1,833
+185
+29件の返信</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-10-27 00:33:37</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>件の表示
+29
+1,399
+1,837
+185
+29件の返信</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-10-27 01:02:36</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>件の表示
+29
+1,403
+1,838
+185
+29件の返信</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-10-27 01:15:50</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>件の表示
+29
+1,409
+1,838
+185
+29件の返信</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-10-27 01:29:09</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>件の表示
+29
+1,411
+1,839
+185
+29件の返信</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-10-27 01:30:19</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>件の表示
+29
+1,411
+1,839
+185
+29件の返信</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-10-27 01:33:32</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>件の表示
+29
+1,411
+1,839
+185
+29件の返信</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-10-27 01:35:41</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>件の表示
+29
+1,411
+1,840
+185
+29件の返信</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-10-27 01:51:36</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>件の表示
+29
+1,413
+1,842
+186
+29件の返信</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-10-27 01:51:56</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>件の表示
+29
+1,413
+1,842
+186
+29件の返信</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-10-27 02:05:28</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>件の表示
+29
+1,413
+1,844
+186
+29件の返信</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-10-27 02:34:08</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>件の表示
+29
+1,417
+1,844
+186
+29件の返信</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-10-27 02:45:29</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>件の表示
+29
+1,419
+1,845
+186
+29件の返信</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-10-27 03:05:21</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>件の表示
+29
+1,421
+1,846
+186
+29件の返信</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-10-27 03:07:14</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>件の表示
+29
+1,421
+1,846
+186
+29件の返信</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-10-27 03:12:14</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>件の表示
+29
+1,422
+1,846
+186
+29件の返信</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-10-27 03:22:37</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>件の表示
+29
+1,422
+1,846
+186
+29件の返信</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-10-27 03:24:18</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>件の表示
+29
+1,422
+1,846
+186
+29件の返信</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-10-27 09:00:29</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>件の表示
+30
+1,438
+1,860
+188
+30件の返信</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-10-27 09:25:09</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>件の表示
+30
+1,440
+1,862
+188
+30件の返信</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-10-27 10:15:02</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>件の表示
+30
+1,450
+1,865
+190
+30件の返信</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-10-27 10:22:13</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>件の表示
+31
+1,451
+1,865
+190
+31件の返信</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-10-27 10:52:14</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>件の表示
+31
+1,453
+1,867
+190
+31件の返信</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-10-27 12:08:24</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,464
+1,872
+190
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-10-27 12:22:14</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,465
+1,873
+190
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-10-27 14:29:22</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,467
+1,878
+191
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-10-27 14:29:37</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,467
+1,878
+191
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-10-27 14:52:15</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,466
+1,878
+192
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-10-27 15:21:15</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,466
+1,881
+192
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-10-27 15:22:14</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,466
+1,881
+192
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-10-27 15:52:14</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,466
+1,881
+192
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-10-27 16:22:14</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,467
+1,881
+192
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-10-27 17:45:21</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,467
+1,882
+192
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-10-27 17:45:33</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,467
+1,882
+192
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-10-27 18:07:17</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,467
+1,882
+192
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-10-27 18:07:27</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,467
+1,882
+192
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-10-27 18:22:26</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,467
+1,882
+192
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-10-27 18:52:21</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,467
+1,882
+192
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-10-27 19:22:14</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,468
+1,884
+192
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-10-27 19:52:16</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,467
+1,886
+192
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-10-27 20:22:16</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,466
+1,886
+192
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-10-27 20:52:15</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,466
+1,887
+192
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-10-27 21:22:14</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,466
+1,889
+192
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-10-27 21:52:17</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,465
+1,888
+192
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-10-27 22:22:22</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,466
+1,889
+192
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-10-27 22:52:14</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,466
+1,890
+192
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-10-27 23:22:14</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,469
+1,890
+192
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1469</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -177,12 +177,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'Sheet1'!$B$2:$B$57</f>
+              <f>'Sheet1'!$B$2:$B$58</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'Sheet1'!$D$2:$D$57</f>
+              <f>'Sheet1'!$D$2:$D$58</f>
             </numRef>
           </yVal>
         </ser>
@@ -567,7 +567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1885,6 +1885,29 @@
         <v>1469</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-10-27 23:52:22</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,469
+1,890
+191
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1469</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -177,12 +177,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'Sheet1'!$B$2:$B$58</f>
+              <f>'Sheet1'!$B$2:$B$70</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'Sheet1'!$D$2:$D$58</f>
+              <f>'Sheet1'!$D$2:$D$70</f>
             </numRef>
           </yVal>
         </ser>
@@ -567,7 +567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1908,6 +1908,282 @@
         <v>1469</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-10-28 00:22:19</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,470
+1,890
+189
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025-10-28 00:52:14</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,470
+1,890
+190
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025-10-28 01:22:14</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,472
+1,890
+190
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025-10-28 01:52:14</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,472
+1,890
+190
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025-10-28 02:22:14</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,472
+1,890
+190
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025-10-28 13:52:20</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,474
+1,892
+188
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025-10-28 14:41:20</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,474
+1,891
+188
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-10-28 14:52:14</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,474
+1,891
+188
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2025-10-28 15:22:20</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,474
+1,891
+188
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2025-10-28 16:01:51</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>件の表示
+32
+1,474
+1,891
+189
+32件の返信</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2025-10-28 20:52:15</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>件の表示
+31
+1,475
+1,893
+191
+31件の返信</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2025-10-28 21:22:16</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>件の表示
+31
+1,475
+1,895
+191
+31件の返信</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1475</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
